--- a/backend/fms_core/tests/valid_templates/Sample_QC_v3_10_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Sample_QC_v3_10_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/freezeman/backend/fms_core/tests/valid_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E66DFB1-292F-7741-9A8F-1D2E823CBB6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9C779D-5B9B-8243-ADE3-685DD70A94EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="422">
   <si>
     <t>Sample QC Template</t>
   </si>
@@ -1286,6 +1286,12 @@
   </si>
   <si>
     <t>3.10.0</t>
+  </si>
+  <si>
+    <t>PoolContainerSourceQC</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2024,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE710"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2164,22 +2172,42 @@
     </row>
     <row r="9" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
-      <c r="B9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>420</v>
+      </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18" t="str">
+      <c r="D9" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F9" s="18">
+        <v>10</v>
+      </c>
+      <c r="G9" s="18">
+        <v>50</v>
+      </c>
+      <c r="H9" s="18">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1250</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="14"/>
+      <c r="J9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="1:31" ht="15" x14ac:dyDescent="0.2">
